--- a/config_aomi/fish_am_yutu_random_2.xlsx
+++ b/config_aomi/fish_am_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1058,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="D2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1110,10 +1110,10 @@
         <v>69</v>
       </c>
       <c r="D2" s="9">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E2" s="9">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>74</v>
@@ -1130,10 +1130,10 @@
         <v>68</v>
       </c>
       <c r="D3" s="9">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E3" s="9">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>74</v>
@@ -1150,10 +1150,10 @@
         <v>70</v>
       </c>
       <c r="D4">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E4">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>74</v>
@@ -1170,10 +1170,10 @@
         <v>64</v>
       </c>
       <c r="D5" s="9">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E5" s="9">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>74</v>
@@ -1210,10 +1210,10 @@
         <v>73</v>
       </c>
       <c r="D7" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E7" s="9">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>74</v>
@@ -1230,10 +1230,10 @@
         <v>55</v>
       </c>
       <c r="D8" s="9">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E8" s="9">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>74</v>
@@ -1244,22 +1244,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D9" s="9">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E9" s="9">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1267,19 +1264,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D10" s="9">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="E10" s="9">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H10" s="9">
         <v>1</v>
@@ -1290,19 +1287,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D11" s="9">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="E11" s="9">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
@@ -1313,19 +1310,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D12" s="9">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="E12" s="9">
-        <v>4200</v>
+        <v>3200</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
@@ -1336,27 +1333,46 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3800</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4200</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>4800</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>5200</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="9"/>
@@ -1370,9 +1386,9 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="9"/>
@@ -1382,9 +1398,13 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1802,7 +1822,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>

--- a/config_aomi/fish_am_yutu_random_2.xlsx
+++ b/config_aomi/fish_am_yutu_random_2.xlsx
@@ -244,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>35,35,42,43,44,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +337,10 @@
   </si>
   <si>
     <t>5,5,5,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,64,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="D2:E9"/>
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1078,7 +1078,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>41</v>
@@ -1104,10 +1104,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="9">
         <v>150</v>
@@ -1116,7 +1116,7 @@
         <v>250</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1124,10 +1124,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="9">
         <v>200</v>
@@ -1136,7 +1136,7 @@
         <v>300</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1144,10 +1144,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>250</v>
@@ -1156,7 +1156,7 @@
         <v>350</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1164,10 +1164,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="D5" s="9">
         <v>300</v>
@@ -1176,7 +1176,7 @@
         <v>450</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1184,10 +1184,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>400</v>
@@ -1196,7 +1196,7 @@
         <v>600</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1204,10 +1204,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9">
         <v>30</v>
@@ -1216,7 +1216,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1224,10 +1224,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D8" s="9">
         <v>50</v>
@@ -1236,7 +1236,7 @@
         <v>80</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1244,10 +1244,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D9" s="9">
         <v>100</v>
@@ -1256,7 +1256,7 @@
         <v>120</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1264,10 +1264,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="D10" s="9">
         <v>800</v>
@@ -1276,7 +1276,7 @@
         <v>1200</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="9">
         <v>1</v>
@@ -1287,10 +1287,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="9">
         <v>1800</v>
@@ -1310,10 +1310,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="D12" s="9">
         <v>2800</v>
@@ -1322,7 +1322,7 @@
         <v>3200</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
@@ -1333,10 +1333,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="9">
         <v>3800</v>
@@ -1356,10 +1356,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="D14" s="9">
         <v>4800</v>
@@ -1368,7 +1368,7 @@
         <v>5200</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="9">
         <v>1</v>
@@ -1849,7 +1849,7 @@
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -1874,7 +1874,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
@@ -1891,10 +1891,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>18</v>
@@ -1908,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>49</v>
@@ -1925,10 +1925,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>14</v>
